--- a/data/stones.xlsx
+++ b/data/stones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\lap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0666463A-72F6-4C02-BA5A-B66ADE2ECBCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE18FB-580B-4D1D-AECD-554FAB94161E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="225" windowWidth="18705" windowHeight="10290" xr2:uid="{6B4F78AC-19D9-4168-B59C-6175042E22EC}"/>
+    <workbookView xWindow="1305" yWindow="630" windowWidth="18705" windowHeight="10290" xr2:uid="{6B4F78AC-19D9-4168-B59C-6175042E22EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="7">
   <si>
     <t>mass</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>quartz</t>
+  </si>
+  <si>
+    <t>amethyst</t>
+  </si>
+  <si>
+    <t>price per gram</t>
+  </si>
+  <si>
+    <t>Topaz</t>
+  </si>
+  <si>
+    <t>Emerald</t>
   </si>
 </sst>
 </file>
@@ -391,746 +403,3464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B96859-7A15-4A75-BDAA-944801870EE8}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:C314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13.87</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.05</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.66</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.13</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.28</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.5599999999999996</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.21</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.8099999999999996</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6.85</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.4800000000000004</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.15</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6.24</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.68</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.38</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.6</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.85</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4.78</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8.7200000000000006</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.25</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.57</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.85</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6.72</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.08</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6.6</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.82</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.24</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.14</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.41</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.7</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.08</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.5</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.17</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.83</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.67</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7.92</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4.8499999999999996</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.08</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.2300000000000004</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3.3</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4.04</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4.6100000000000003</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4.51</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.87</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3.44</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.2999999999999998</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.39</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.87</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.84</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3.04</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3.52</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3.49</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6.33</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3.22</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4.1500000000000004</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2.2799999999999998</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3.28</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.24</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.46</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2.42</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.75</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4.07</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.2200000000000002</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3.83</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2.14</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2.96</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4.7300000000000004</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3.6</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5.26</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3.11</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.4500000000000002</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.35</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.94</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1.8</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3.6</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.04</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5.2</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2.72</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3.73</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3.21</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.17</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.93</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3.16</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3.53</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.71</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2.68</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4.46</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1.6</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2.5</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2.33</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3.93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3.08</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3.91</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3.03</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3.27</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2.19</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1.96</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3.46</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2.25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4.33</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2.46</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3.1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2.89</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1.82</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2.1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1.22</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2.61</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2.4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2.9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2.19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1.85</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2.91</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1.45</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1.95</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2.75</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3.06</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3.44</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3.7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2.69</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3.25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1.45</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1.79</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2.92</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1.27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3.31</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>4.32</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1.81</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2.09</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3.44</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1.73</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2.12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1.78</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3.74</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1.4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1.74</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2.59</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1.5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1.85</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1.9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2.48</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1.75</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1.67</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3.23</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2.61</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4.07</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3.3</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3.23</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1.96</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1.91</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2.73</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1.67</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2.66</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1.47</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1.77</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3.43</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1.92</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2.56</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2.04</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>3.83</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1.44</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2.77</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1.77</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1.8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1.06</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2.56</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1.89</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.86</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2.39</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1.43</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1.87</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1.64</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1.92</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>3.29</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1.59</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1.85</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2.38</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1.74</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>3.76</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1.97</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1.78</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1.75</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1.27</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2.31</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2.48</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1.26</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2.74</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1.17</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>3.11</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0.96</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>3.28</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2.58</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1.55</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1.58</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1.75</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2.16</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1.89</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1.56</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1.71</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1.32</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1.24</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1.64</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1.34</v>
+      </c>
+      <c r="B225" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2.41</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2.48</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2.33</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2.16</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1.8</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1.29</v>
+      </c>
+      <c r="B232" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1.68</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1.85</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1.5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1.18</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1.67</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1.81</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2.14</v>
+      </c>
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1.52</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1.32</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1.92</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>0.77</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2.14</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1.62</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1.8</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0.87</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1.06</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1.3</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B252" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1.24</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1.05</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>17.47</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>43</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>22.41</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>22.96</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>29.1</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>20.64</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>25.21</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>13.79</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>12.76</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>23.5</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>19.86</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>30.52</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>29</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>25.63</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>35.57</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>28.9</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>12.04</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>23.39</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>11.67</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>11.39</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>6.71</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2.93</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1.49</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1.6</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3.94</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>3.77</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>6.08</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>4.62</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>3.17</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>3.25</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2.34</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>5.78</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>4.63</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2.9</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1.8</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3.84</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>3.58</v>
+      </c>
+      <c r="B295" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>3.82</v>
+      </c>
+      <c r="B296" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>8.84</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1.22</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1.48</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>3.03</v>
+      </c>
+      <c r="B300" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1.54</v>
+      </c>
+      <c r="B301" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2.09</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2.8</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2.23</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1.74</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1.53</v>
+      </c>
+      <c r="B306" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1.94</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2.1</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1.51</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1.59</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>0.63</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>0.31</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/stones.xlsx
+++ b/data/stones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\lap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE18FB-580B-4D1D-AECD-554FAB94161E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A02D2E-A844-45F8-B59B-3259E8E45BC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="630" windowWidth="18705" windowHeight="10290" xr2:uid="{6B4F78AC-19D9-4168-B59C-6175042E22EC}"/>
+    <workbookView xWindow="2475" yWindow="1410" windowWidth="18900" windowHeight="11055" xr2:uid="{6B4F78AC-19D9-4168-B59C-6175042E22EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="C85">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="C86">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <v>1.2E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1704,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="C119">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="C120">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1748,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1913,7 +1913,7 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="C141">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="C142">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -1979,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="C143">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="C144">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="C146">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="C147">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="C149">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="C150">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="C151">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="C152">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="C153">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="C154">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="C155">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="C156">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="C157">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="C158">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2155,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="C159">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="C161">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2188,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="C162">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="C163">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="C164">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="C165">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="C166">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C167">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="C168">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="C169">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>3</v>
       </c>
       <c r="C170">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="C171">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="C173">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="C174">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2331,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="C175">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="C176">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="C177">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="C178">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="C179">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="C180">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="C181">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="C182">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2419,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="C183">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
         <v>3</v>
       </c>
       <c r="C184">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="C185">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="C186">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="C187">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,7 +2474,7 @@
         <v>3</v>
       </c>
       <c r="C188">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="C189">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="C190">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2507,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="C191">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="C192">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="C193">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="C194">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="C195">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="C197">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="C198">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="C199">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="C200">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2617,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="C201">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="C202">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="C203">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="C204">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -2661,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="C205">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="C206">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -2683,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="C207">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="C208">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -2705,7 +2705,7 @@
         <v>3</v>
       </c>
       <c r="C209">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>3</v>
       </c>
       <c r="C210">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="C211">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="C212">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -2749,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="C213">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="C214">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="C215">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -2782,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="C216">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="C217">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="C218">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="C219">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -2826,7 +2826,7 @@
         <v>3</v>
       </c>
       <c r="C220">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -2837,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="C221">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="C222">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -2859,7 +2859,7 @@
         <v>3</v>
       </c>
       <c r="C223">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="C224">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="C225">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="C226">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="C227">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="C228">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -2925,7 +2925,7 @@
         <v>3</v>
       </c>
       <c r="C229">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -2936,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="C230">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="C231">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="C232">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -2969,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="C233">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
         <v>3</v>
       </c>
       <c r="C234">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="C235">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="C236">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3013,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="C237">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3024,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="C238">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3035,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C239">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="C240">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="C241">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="C242">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
         <v>3</v>
       </c>
       <c r="C243">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3090,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="C244">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="C245">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="C246">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3123,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="C247">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3134,7 +3134,7 @@
         <v>3</v>
       </c>
       <c r="C248">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="C249">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="C250">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="C251">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3178,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="C252">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="C253">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3200,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>3.3000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="C255">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3222,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="C256">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3233,7 +3233,7 @@
         <v>5</v>
       </c>
       <c r="C257">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="C258">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="C259">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>5</v>
       </c>
       <c r="C260">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>5</v>
       </c>
       <c r="C261">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3288,7 +3288,7 @@
         <v>5</v>
       </c>
       <c r="C262">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3299,7 +3299,7 @@
         <v>5</v>
       </c>
       <c r="C263">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3310,7 +3310,7 @@
         <v>5</v>
       </c>
       <c r="C264">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3321,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="C265">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>5</v>
       </c>
       <c r="C266">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>5</v>
       </c>
       <c r="C267">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3354,7 +3354,7 @@
         <v>5</v>
       </c>
       <c r="C268">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3365,7 +3365,7 @@
         <v>6</v>
       </c>
       <c r="C269">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3376,7 +3376,7 @@
         <v>6</v>
       </c>
       <c r="C270">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="C271">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3398,7 +3398,7 @@
         <v>6</v>
       </c>
       <c r="C272">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C273">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>6</v>
       </c>
       <c r="C274">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>6</v>
       </c>
       <c r="C275">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="C276">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3453,7 +3453,7 @@
         <v>6</v>
       </c>
       <c r="C277">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3464,7 +3464,7 @@
         <v>6</v>
       </c>
       <c r="C278">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3475,7 +3475,7 @@
         <v>6</v>
       </c>
       <c r="C279">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3486,7 +3486,7 @@
         <v>6</v>
       </c>
       <c r="C280">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3497,7 +3497,7 @@
         <v>6</v>
       </c>
       <c r="C281">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
         <v>6</v>
       </c>
       <c r="C282">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
         <v>6</v>
       </c>
       <c r="C283">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3530,7 +3530,7 @@
         <v>6</v>
       </c>
       <c r="C284">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3541,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="C285">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3552,7 +3552,7 @@
         <v>6</v>
       </c>
       <c r="C286">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,7 @@
         <v>6</v>
       </c>
       <c r="C287">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3574,7 +3574,7 @@
         <v>6</v>
       </c>
       <c r="C288">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3585,7 +3585,7 @@
         <v>6</v>
       </c>
       <c r="C289">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>6</v>
       </c>
       <c r="C290">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -3607,7 +3607,7 @@
         <v>6</v>
       </c>
       <c r="C291">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -3618,7 +3618,7 @@
         <v>6</v>
       </c>
       <c r="C292">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -3629,7 +3629,7 @@
         <v>6</v>
       </c>
       <c r="C293">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,7 +3640,7 @@
         <v>6</v>
       </c>
       <c r="C294">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -3651,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="C295">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -3662,7 +3662,7 @@
         <v>6</v>
       </c>
       <c r="C296">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
         <v>6</v>
       </c>
       <c r="C297">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="C298">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <v>6</v>
       </c>
       <c r="C299">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -3706,7 +3706,7 @@
         <v>6</v>
       </c>
       <c r="C300">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>6</v>
       </c>
       <c r="C301">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,7 +3728,7 @@
         <v>6</v>
       </c>
       <c r="C302">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,7 +3739,7 @@
         <v>6</v>
       </c>
       <c r="C303">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -3750,7 +3750,7 @@
         <v>6</v>
       </c>
       <c r="C304">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -3761,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="C305">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -3772,7 +3772,7 @@
         <v>6</v>
       </c>
       <c r="C306">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -3783,7 +3783,7 @@
         <v>6</v>
       </c>
       <c r="C307">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -3794,7 +3794,7 @@
         <v>6</v>
       </c>
       <c r="C308">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>6</v>
       </c>
       <c r="C309">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,7 @@
         <v>6</v>
       </c>
       <c r="C310">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -3827,7 +3827,7 @@
         <v>6</v>
       </c>
       <c r="C311">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -3838,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="C312">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -3849,7 +3849,7 @@
         <v>6</v>
       </c>
       <c r="C313">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
         <v>6</v>
       </c>
       <c r="C314">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
